--- a/biology/Médecine/Hémangio-endothéliome_kaposiforme/Hémangio-endothéliome_kaposiforme.xlsx
+++ b/biology/Médecine/Hémangio-endothéliome_kaposiforme/Hémangio-endothéliome_kaposiforme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9mangio-endoth%C3%A9liome_kaposiforme</t>
+          <t>Hémangio-endothéliome_kaposiforme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hémangio-endothéliome kaposiforme est une tumeur vasculaire (angiome) rare, cutanée (évoquant cliniquement à l'angiome en touffes) ou greffées sur un « lymphangiome » (malformation lymphatique diffuse) ou viscérale, évoluant très rarement vers une tumeur maligne.
 L’hémangio-endothéliome kaposiforme apparaît à tout âge mais le plus souvent chez le nourrisson, éventuellement de manière congénitale.
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9mangio-endoth%C3%A9liome_kaposiforme</t>
+          <t>Hémangio-endothéliome_kaposiforme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est encore inconnue.
 </t>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9mangio-endoth%C3%A9liome_kaposiforme</t>
+          <t>Hémangio-endothéliome_kaposiforme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Symptômes et diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il a un fondement histologique (après définition des limites en IRM): des nodules et des nappes denses de cellules fusiformes avec peu d'atypies cellulaires et de mitoses, et de fréquentes fentes vasculaires vides, fixant le marqueur lymphatique D2-40.
 Diagnostics différentiels :
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9mangio-endoth%C3%A9liome_kaposiforme</t>
+          <t>Hémangio-endothéliome_kaposiforme</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Complications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Uniquement chez l’enfant : avec possible thrombopénie sévère accompagnée d’une coagulopathie de consommation (Syndrome de Kasabach-Merritt).
 </t>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%A9mangio-endoth%C3%A9liome_kaposiforme</t>
+          <t>Hémangio-endothéliome_kaposiforme</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Détection prénatale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle peut concerner les formes congénitales volumineuses grâce au repérage d'une masse richement vascularisée en échographie fœtale, puis confirmée par IRM fœtale. Mais le diagnostic n’est certain qu’après la naissance (biopsie).
 </t>
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>H%C3%A9mangio-endoth%C3%A9liome_kaposiforme</t>
+          <t>Hémangio-endothéliome_kaposiforme</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,7 +664,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>forme cutanée non compliquée ; corticothérapie locale si la lésion est de taille modeste ; ou interféron alfa 2b ou vincristine dans les formes diffuses invalidantes
 s’il y a aussi un syndrome de Kasabach-Merritt ; traitement médicamenteux (corticothérapie systémique, vincristine, interféron alfa 2b, polychimiothérapie, association ticlopidine + aspirine, pentoxyphilline), embolisation thérapeutique, excision chirurgicale, radiothérapie.</t>
@@ -657,7 +679,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>H%C3%A9mangio-endoth%C3%A9liome_kaposiforme</t>
+          <t>Hémangio-endothéliome_kaposiforme</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,7 +697,9 @@
           <t>Évolution, Pronostic</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon la gravité, la chronicité des lésions et les complications éventuelles (plus graves avec le syndrome de Kasabach-Merritt).
 </t>
@@ -688,7 +712,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>H%C3%A9mangio-endoth%C3%A9liome_kaposiforme</t>
+          <t>Hémangio-endothéliome_kaposiforme</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -706,7 +730,9 @@
           <t>Prévalence</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est encore inconnue en 2006.
 </t>
